--- a/0.1.1/StructureDefinition-offset-begin.xlsx
+++ b/0.1.1/StructureDefinition-offset-begin.xlsx
@@ -215,7 +215,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal
+    <t xml:space="preserve">integer
 </t>
   </si>
   <si>
